--- a/Backend/Data/TestData/test.xlsx
+++ b/Backend/Data/TestData/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB PROJECTS\TreasureHuntTestConductor\Backend\Data\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20C349C-32C3-403C-810D-ACC21EEFCD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CAFC29-9C55-4993-A1F5-F96B1C6957B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>questionId</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Timepass1</t>
+  </si>
+  <si>
+    <t>What is Machine learning?</t>
+  </si>
+  <si>
+    <t>ML</t>
   </si>
 </sst>
 </file>
@@ -394,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,6 +483,17 @@
       </c>
       <c r="C6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/Data/TestData/test.xlsx
+++ b/Backend/Data/TestData/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB PROJECTS\TreasureHuntTestConductor\Backend\Data\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CAFC29-9C55-4993-A1F5-F96B1C6957B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DBBDEF-6EE6-4E89-B3D0-F374CA8E5B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>questionId</t>
   </si>
@@ -37,41 +37,101 @@
     <t>answer</t>
   </si>
   <si>
-    <t>Who is narendra avinash?</t>
-  </si>
-  <si>
-    <t>Who is narendra jadhav?</t>
-  </si>
-  <si>
-    <t>Who is narendra pal?</t>
-  </si>
-  <si>
-    <t>Who is narendra patil?</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>Who is RAH?</t>
-  </si>
-  <si>
-    <t>TESTING</t>
-  </si>
-  <si>
-    <t>Timepass1</t>
-  </si>
-  <si>
-    <t>What is Machine learning?</t>
-  </si>
-  <si>
-    <t>ML</t>
+    <t>What is the primary purpose of a Docker container?</t>
+  </si>
+  <si>
+    <t>Isolation</t>
+  </si>
+  <si>
+    <t>In Python, what does PEP stand for?</t>
+  </si>
+  <si>
+    <t>Python Enhancement Proposal</t>
+  </si>
+  <si>
+    <t>What does the acronym MERN stand for in the context of software development?</t>
+  </si>
+  <si>
+    <t>MongoDB, Express.js, React, Node.js</t>
+  </si>
+  <si>
+    <t>What programming language is Docker primarily written in?</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>What is the core component of Kubernetes for container orchestration?</t>
+  </si>
+  <si>
+    <t>Kubelet</t>
+  </si>
+  <si>
+    <t>What is the default package manager for Python?</t>
+  </si>
+  <si>
+    <t>In Unix, what command is used to list files and directories?</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>What does the acronym IBM stand for?</t>
+  </si>
+  <si>
+    <t>International Business Machines</t>
+  </si>
+  <si>
+    <t>What does the "Z" in Z/OS Unix refer to?</t>
+  </si>
+  <si>
+    <t>Zero Downtime</t>
+  </si>
+  <si>
+    <t>Which protocol is commonly used for secure communication over a computer network?</t>
+  </si>
+  <si>
+    <t>HTTPS</t>
+  </si>
+  <si>
+    <t>What does the term "API" stand for in software development?</t>
+  </si>
+  <si>
+    <t>Application Programming Interface</t>
+  </si>
+  <si>
+    <t>Which data structure follows the Last In, First Out (LIFO) principle?</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>What is the purpose of the "git clone" command in Git?</t>
+  </si>
+  <si>
+    <t>Copy a repository</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>In networking, what does DNS stand for?</t>
+  </si>
+  <si>
+    <t>Domain Name System</t>
+  </si>
+  <si>
+    <t>Which C++ keyword is used to dynamically allocate memory?</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,10 +149,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,8 +182,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -400,20 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
+    <col min="3" max="3" width="52.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,77 +490,170 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/Data/TestData/test.xlsx
+++ b/Backend/Data/TestData/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB PROJECTS\TreasureHuntTestConductor\Backend\Data\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DBBDEF-6EE6-4E89-B3D0-F374CA8E5B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B99B9EA-DAD2-4F9E-B9DE-9512B24AA3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Backend/Data/TestData/test.xlsx
+++ b/Backend/Data/TestData/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB PROJECTS\TreasureHuntTestConductor\Backend\Data\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m2pap\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B99B9EA-DAD2-4F9E-B9DE-9512B24AA3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2B569-1B0E-4D2E-ADCA-98C6E7405A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,26 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>questionId</t>
   </si>
@@ -37,94 +46,75 @@
     <t>answer</t>
   </si>
   <si>
-    <t>What is the primary purpose of a Docker container?</t>
-  </si>
-  <si>
-    <t>Isolation</t>
-  </si>
-  <si>
-    <t>In Python, what does PEP stand for?</t>
-  </si>
-  <si>
-    <t>Python Enhancement Proposal</t>
-  </si>
-  <si>
-    <t>What does the acronym MERN stand for in the context of software development?</t>
-  </si>
-  <si>
-    <t>MongoDB, Express.js, React, Node.js</t>
-  </si>
-  <si>
-    <t>What programming language is Docker primarily written in?</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>What is the core component of Kubernetes for container orchestration?</t>
-  </si>
-  <si>
-    <t>Kubelet</t>
-  </si>
-  <si>
-    <t>What is the default package manager for Python?</t>
-  </si>
-  <si>
-    <t>In Unix, what command is used to list files and directories?</t>
-  </si>
-  <si>
-    <t>ls</t>
-  </si>
-  <si>
-    <t>What does the acronym IBM stand for?</t>
-  </si>
-  <si>
-    <t>International Business Machines</t>
-  </si>
-  <si>
-    <t>What does the "Z" in Z/OS Unix refer to?</t>
-  </si>
-  <si>
-    <t>Zero Downtime</t>
-  </si>
-  <si>
-    <t>Which protocol is commonly used for secure communication over a computer network?</t>
-  </si>
-  <si>
-    <t>HTTPS</t>
-  </si>
-  <si>
-    <t>What does the term "API" stand for in software development?</t>
-  </si>
-  <si>
-    <t>Application Programming Interface</t>
-  </si>
-  <si>
-    <t>Which data structure follows the Last In, First Out (LIFO) principle?</t>
-  </si>
-  <si>
-    <t>Stack</t>
-  </si>
-  <si>
-    <t>What is the purpose of the "git clone" command in Git?</t>
-  </si>
-  <si>
-    <t>Copy a repository</t>
-  </si>
-  <si>
-    <t>pip</t>
-  </si>
-  <si>
-    <t>In networking, what does DNS stand for?</t>
-  </si>
-  <si>
-    <t>Domain Name System</t>
-  </si>
-  <si>
-    <t>Which C++ keyword is used to dynamically allocate memory?</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t>Bhupindar Jogi</t>
+  </si>
+  <si>
+    <t>The control panel was unlocked but the voyage proved lengthy, and feeling fatigued, Gauri sought a break. Opting for some amusement, she logged onto Leetcode to participate in Weekly Contest 381. To her delight, she secured the 4811th position. Can you guess her username? (Asking for a friend ;) )</t>
+  </si>
+  <si>
+    <t>its_me_again</t>
+  </si>
+  <si>
+    <t>Nice programmer she is! As they sailed through the ocean, Varun and Gauri came across a ship which had the following flag:&lt;br/&gt;
+&lt;a href="https://ibb.co/cyNhC08"&gt;&lt;img src="https://i.ibb.co/x2MqfWg/6cr5dynoi.jpg" alt="6cr5dynoi" border="0"&gt;&lt;/a&gt;. Can you see how many cannons are there on that ship?</t>
+  </si>
+  <si>
+    <t>Deepsea</t>
+  </si>
+  <si>
+    <t>As the map revealed the directions, Varun and Gauri directed the magical ship to submerge into the deep sea where the treasure lay hidden. Suddenly they came across two fishes, one of them was finding his lost child and the other one was helping him. They were wearing a strange goggle which had a name on it. As per their knowledge, the lost child was with the person who owned that goggle. The fishes were not able to read. So, will you please read them the Last Name of the person who owns the goggle? (Ans in lowercase)</t>
+  </si>
+  <si>
+    <t>sherman</t>
+  </si>
+  <si>
+    <t>bangkok</t>
+  </si>
+  <si>
+    <t>When they entered into the submarine, Gauri found an old stick somewhere in the submarine. It looked like this &lt;br/&gt;
+&lt;a href="https://imgbb.com/"&gt;&lt;img src="https://i.ibb.co/b3FByjc/meow.png" alt="meow" border="0"&gt;&lt;/a&gt;.
+&lt;br/&gt;
+While clutching the stick, Gauri uttered words within the dim confines of the submarine, causing the entire space to illuminate with an eerie blue glow. Did you hear what Gauri said? (Ans in lowercase)</t>
+  </si>
+  <si>
+    <t>lumos</t>
+  </si>
+  <si>
+    <t>meow</t>
+  </si>
+  <si>
+    <t>Upon successfully bypassing the initial security layer, Varun and Gauri were presented with the following prompt for the final key to access the treasure: "A DASH" This time, they had only one opportunity to unlock the chest. Failure would result in the loss of the entire treasure. Can you decode the key?</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>As Varun and Gauri approached the magical ship, they found some skeptical marks on the ship: &lt;br/&gt;&lt;pre&gt;"-... . --. .. -."&lt;/pre&gt; They pondered, understanding these signs would set sail to uncover treasure. What word would unlock the ship to their journey?</t>
+  </si>
+  <si>
+    <t>Woahhh, Our ship has unlocked! Now, our hunters take charge of the ship. But uh oh, the ship's control panel is asking a password, which is stored on this website: &lt;a href="https://th-getpass.netlify.app/" target="blank"&gt;Get Pass&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>As they followed the path to their mystical treasure, there map started to vanish. Can you tell them which direction they should move to get close to the treasure? &lt;a href="https://th-map.netlify.app/" target="blank"&gt;The Map&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="display:flex; flex-wrap:wrap; color:white"&gt;After helping Marlin, Varun and Gauri found an ancient submarine in which the actual treasure was hidden. When they were having a precise look at the submarine, they saw something written on one of the windows: &lt;br/&gt;
+&lt;pre style="color:white"&gt;nisokanattar noma nohkanaham peht gnurk 
+kolidaham ayahtuy arahtniham 
+inahtahctar tarahppon pohp 
+nahtasaham tewinahctarmodu morirub 
+natawa namip noma  
+tisarp makunastiw ayittahtakkas tihtas&lt;/pre&gt;
+&lt;br/&gt;
+&lt;div style="color:white"&gt;
+Can you ascertain the origin of the submarine? (Ans in lowercase)
+&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Under the enchanting glow of the wand's light, they discovered the treasure chest, guarded by two layers of security. The initial layer required them to navigate through several paths to reach their objective. Their exploration began at this point: &lt;a href="https://start-from-here.netlify.app/" target="blank"&gt;The ENTRY&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -182,10 +172,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,180 +478,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="1:3" ht="216.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
